--- a/data_impute_project/imputation_comparison/combination_3_ABCDF/C/15/seed1_imputed_comparison.xlsx
+++ b/data_impute_project/imputation_comparison/combination_3_ABCDF/C/15/seed1_imputed_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>RF</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>KNN_Outliers_MAD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SVM_Outliers_MAD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RF_Outliers_MAD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +493,15 @@
       <c r="E2" t="n">
         <v>-14.1368</v>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +521,15 @@
       <c r="E3" t="n">
         <v>-11.5864</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +549,15 @@
       <c r="E4" t="n">
         <v>-12.11130000000001</v>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +577,15 @@
       <c r="E5" t="n">
         <v>-11.5921</v>
       </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -553,6 +604,15 @@
       </c>
       <c r="E6" t="n">
         <v>-14.5657</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
